--- a/支援一覧2017.xlsx
+++ b/支援一覧2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dropbox\物件管理-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yama\Documents\prm\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="465" windowWidth="25605" windowHeight="14955" tabRatio="246" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14775" yWindow="465" windowWidth="25605" windowHeight="14955" tabRatio="246" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物件一覧" sheetId="1" r:id="rId1"/>
@@ -2539,7 +2539,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2">
         <f ca="1">TODAY()</f>
-        <v>42950</v>
+        <v>42958</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
@@ -19936,7 +19936,7 @@
       <c r="N175" s="55"/>
       <c r="O175" s="20"/>
       <c r="P175" s="29">
-        <f t="shared" ref="P175:P176" si="118">EOMONTH(M175,1)</f>
+        <f t="shared" ref="P175" si="118">EOMONTH(M175,1)</f>
         <v>43008</v>
       </c>
       <c r="Q175" s="40"/>
